--- a/adresser.xlsx
+++ b/adresser.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23416"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23420"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{92886BA3-5666-426F-B4AD-04DBFE9BF0A4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2A278D88-055B-413F-B57F-44D24C3BA6C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>Ruben Sørensen</t>
   </si>
@@ -47,6 +47,24 @@
   </si>
   <si>
     <t>steinhs@icloud.com</t>
+  </si>
+  <si>
+    <t>Jehad Babawat</t>
+  </si>
+  <si>
+    <t>233826@usn.no</t>
+  </si>
+  <si>
+    <t>Philip Dahl</t>
+  </si>
+  <si>
+    <t>229464@usn.no</t>
+  </si>
+  <si>
+    <t>Eskild Svennungsen</t>
+  </si>
+  <si>
+    <t>229870@usn.no</t>
   </si>
 </sst>
 </file>
@@ -409,10 +427,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -453,12 +471,39 @@
         <v>6</v>
       </c>
     </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B1" r:id="rId1" xr:uid="{F9AC68DB-CC66-46EF-BAC7-680348D3CBDE}"/>
     <hyperlink ref="B2" r:id="rId2" xr:uid="{E97F3E59-00CD-4BD3-A189-0E5826E1A85C}"/>
     <hyperlink ref="B3" r:id="rId3" xr:uid="{817220E4-9339-4061-875F-15FACE2ECC64}"/>
     <hyperlink ref="B4" r:id="rId4" xr:uid="{80B1B403-4FF3-4326-B73A-85AED485E104}"/>
+    <hyperlink ref="B5" r:id="rId5" xr:uid="{1BC26088-0A17-4592-AF1A-BEAF52FB567C}"/>
+    <hyperlink ref="B6" r:id="rId6" xr:uid="{A81D505B-0F22-44E7-9DFC-5ABEBFDF3725}"/>
+    <hyperlink ref="B7" r:id="rId7" xr:uid="{1480D392-9D83-4B20-AA9D-C9F3DFC3CD46}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
